--- a/data/trans_orig/IP16B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1708722C-1D8E-491B-A8E3-39AB327A78E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC716ED9-C69D-4A0D-B9EE-DE56F9C00EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CD2DE53-8377-4C56-AAC7-9D9D50585C75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D09D8393-7A96-4438-9964-78BDF8A497C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,7 +127,7 @@
     <t>86,51%</t>
   </si>
   <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2015 (Tasa respuesta: 0,38%)</t>
+    <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2016 (Tasa respuesta: 0,38%)</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC04E534-6BD5-493F-AF67-4E78BFA050F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E3F20B-0A03-42FA-8914-FACC1E666AC0}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1082,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9C0555-C740-4568-BFC7-57AD600021AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266CDA1D-6C13-4077-948B-62ED58AEF375}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1621,7 +1621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84B8712-0E84-4DC5-99BA-609CF2DD42C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D09511-BFA6-4CA4-BAE7-F62EAE65E76D}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC716ED9-C69D-4A0D-B9EE-DE56F9C00EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C33298-F47C-43C6-8CDC-390B7D613C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D09D8393-7A96-4438-9964-78BDF8A497C6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6FBCFD18-7328-46FC-8240-DE868233C505}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2007 (Tasa respuesta: 0,67%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,25 +73,25 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>76,75%</t>
+  </si>
+  <si>
     <t>43,07%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E3F20B-0A03-42FA-8914-FACC1E666AC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6A00F8-2BBF-4BA6-87F4-431162F7E910}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -657,29 +657,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>598</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>598</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -691,13 +691,13 @@
         <v>598</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -706,24 +706,24 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>598</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>598</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
@@ -740,13 +740,13 @@
         <v>598</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -757,34 +757,34 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>1289</v>
+        <v>4083</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>4083</v>
+        <v>1289</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -793,13 +793,13 @@
         <v>5372</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -808,34 +808,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4083</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1289</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4083</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -844,13 +844,13 @@
         <v>5372</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -861,34 +861,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>517</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>1983</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>517</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -897,13 +897,13 @@
         <v>2500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -912,34 +912,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>1983</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>517</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -948,13 +948,13 @@
         <v>2500</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -965,34 +965,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5197</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3272</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5197</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -1001,13 +1001,13 @@
         <v>8469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1016,34 +1016,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5197</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>3272</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5197</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -1052,13 +1052,13 @@
         <v>8469</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1082,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266CDA1D-6C13-4077-948B-62ED58AEF375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63BD372-DA6A-4006-90AC-3CBBCCFA8B97}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1200,32 +1200,32 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>607</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>607</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1249,32 +1249,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>607</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1283,13 +1283,13 @@
         <v>607</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,34 +1300,34 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2558</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4975</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2558</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -1336,13 +1336,13 @@
         <v>7533</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,34 +1351,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2558</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4975</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2558</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -1387,13 +1387,13 @@
         <v>7533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,29 +1404,29 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>944</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>944</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>14</v>
@@ -1438,13 +1438,13 @@
         <v>944</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,24 +1453,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>944</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>944</v>
-      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1487,13 +1487,13 @@
         <v>944</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,34 +1504,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3501</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5582</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3501</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -1540,13 +1540,13 @@
         <v>9083</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,34 +1555,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3501</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>5582</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3501</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -1591,13 +1591,13 @@
         <v>9083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,7 +1621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D09511-BFA6-4CA4-BAE7-F62EAE65E76D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD19EB06-9B67-427C-B9B7-A37E9495E233}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1743,39 +1743,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,39 +1788,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,34 +1831,34 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2277</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2099</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2277</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1867,13 +1867,13 @@
         <v>4376</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,34 +1882,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2277</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2099</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2277</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1918,13 +1918,13 @@
         <v>4376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,32 +1935,32 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>700</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1969,13 +1969,13 @@
         <v>700</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,32 +1984,32 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>700</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2018,13 +2018,13 @@
         <v>700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,31 +2038,31 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2799</v>
+        <v>2277</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2277</v>
+        <v>2799</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2071,13 +2071,13 @@
         <v>5075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,31 +2089,31 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>2799</v>
+        <v>2277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2277</v>
+        <v>2799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2122,13 +2122,13 @@
         <v>5075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
